--- a/React学习/React学习日记.xlsx
+++ b/React学习/React学习日记.xlsx
@@ -25,7 +25,7 @@
     <t>学习内容</t>
   </si>
   <si>
-    <t>存在的疑问</t>
+    <t>存在的问题</t>
   </si>
   <si>
     <t>解决情况</t>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、样式的类名指定不要用</t>
     </r>
     <r>
@@ -90,7 +96,8 @@
   </si>
   <si>
     <t>1、关于class的extends扩展子类
-   和super()。</t>
+   和super()。
+2、git使用不熟练。</t>
   </si>
   <si>
     <t>1、如果子类中定义了构造函数，
@@ -142,6 +149,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -149,8 +178,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,80 +240,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,38 +263,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,17 +502,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,21 +562,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -555,20 +576,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,17 +599,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -600,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,16 +619,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,115 +637,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,7 +1105,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
